--- a/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Stand_Alone/28_11R22.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="57">
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>Signal_Value_123</t>
-  </si>
-  <si>
-    <t>Signal_Value_124</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -550,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -665,466 +662,451 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.2111958382500011</v>
+      </c>
+      <c r="F2">
+        <v>0.002963971392375139</v>
+      </c>
+      <c r="G2">
+        <v>0.1080032530394242</v>
+      </c>
+      <c r="H2">
+        <v>0.06889089728300291</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.06236314078591775</v>
+      </c>
+      <c r="N2">
+        <v>0.1292556979003926</v>
+      </c>
+      <c r="O2">
+        <v>0.06056529858791484</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.04786689887674664</v>
+      </c>
+      <c r="R2">
+        <v>0.08020572247141872</v>
+      </c>
+      <c r="S2">
+        <v>0.05754515818850337</v>
+      </c>
+      <c r="T2">
+        <v>0.08660079651025968</v>
+      </c>
+      <c r="U2">
+        <v>0.018784222276267</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0.05526159143579328</v>
+      </c>
+      <c r="AC2">
+        <v>0.006470829698231236</v>
+      </c>
+      <c r="AD2">
+        <v>0.004026683303751535</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.05227602163694004</v>
-      </c>
-      <c r="E2">
-        <v>0.1446971150797848</v>
-      </c>
-      <c r="F2">
-        <v>0.2159902207704085</v>
-      </c>
-      <c r="G2">
-        <v>0.2172915037649183</v>
-      </c>
-      <c r="H2">
-        <v>0.001261706832069276</v>
-      </c>
-      <c r="I2">
-        <v>0.04225580596258013</v>
-      </c>
-      <c r="J2">
-        <v>0.02002500917777559</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0.02383260028749569</v>
-      </c>
-      <c r="O2">
-        <v>0.06408475540338457</v>
-      </c>
-      <c r="P2">
-        <v>0.02553444209348987</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0.03572876697831024</v>
-      </c>
-      <c r="S2">
-        <v>0.07227525240818347</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0.004338494239685599</v>
-      </c>
-      <c r="AB2">
-        <v>0.04104287734301845</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0.03805326964814988</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0.001312158373805273</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1701213255576947</v>
+      </c>
+      <c r="E3">
+        <v>0.03833610006462307</v>
+      </c>
+      <c r="F3">
+        <v>0.09210134291440521</v>
+      </c>
+      <c r="G3">
+        <v>0.02971371324532922</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0.01898878167730328</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.2487578208404685</v>
+      </c>
+      <c r="N3">
+        <v>0.0007403199191836197</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.09198561993192131</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.1144664057728273</v>
+      </c>
+      <c r="S3">
+        <v>0.01374643333479289</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.02122538325441559</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0.0106192971595993</v>
+      </c>
+      <c r="Z3">
+        <v>0.02925324249154224</v>
+      </c>
+      <c r="AA3">
+        <v>0.1100867363481906</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0.009857477487702906</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.2963964809008053</v>
-      </c>
-      <c r="G3">
-        <v>0.002965733538903559</v>
-      </c>
-      <c r="H3">
-        <v>0.2650021891096919</v>
-      </c>
-      <c r="I3">
-        <v>0.0096831372908373</v>
-      </c>
-      <c r="J3">
-        <v>0.04613074204241689</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0.06836262997400276</v>
-      </c>
-      <c r="M3">
-        <v>0.02661474433962446</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0.01590951728843793</v>
-      </c>
-      <c r="Q3">
-        <v>0.09341925912490752</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.05009577398566298</v>
-      </c>
-      <c r="T3">
-        <v>0.03712953881284548</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0.0337780559748183</v>
-      </c>
-      <c r="AD3">
-        <v>0.002147524538128404</v>
-      </c>
-      <c r="AE3">
-        <v>0.05236467307891722</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2071925908274842</v>
+      </c>
+      <c r="E4">
+        <v>0.01494502467427134</v>
+      </c>
+      <c r="F4">
+        <v>0.1070653383884434</v>
+      </c>
+      <c r="G4">
+        <v>0.06059323725274482</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0.003314509101678206</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.2128119718523673</v>
+      </c>
+      <c r="N4">
+        <v>0.03988702193953626</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.07761068082577373</v>
+      </c>
+      <c r="Q4">
+        <v>0.01478045850711876</v>
+      </c>
+      <c r="R4">
+        <v>0.03630660165670372</v>
+      </c>
+      <c r="S4">
+        <v>0.02710491938889393</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0.02488662770756966</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0.02210503817821479</v>
+      </c>
+      <c r="Z4">
+        <v>0.01326874770105068</v>
+      </c>
+      <c r="AA4">
+        <v>0.1205610562992468</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0.01756617569890246</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.2690853829751593</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.1730596773045425</v>
-      </c>
-      <c r="H4">
-        <v>0.03410949806375992</v>
-      </c>
-      <c r="I4">
-        <v>0.009864619963309946</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0.08866487474151809</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0.1307204712476435</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0.03614280509614683</v>
-      </c>
-      <c r="Q4">
-        <v>0.07851399728811799</v>
-      </c>
-      <c r="R4">
-        <v>0.003088005375383761</v>
-      </c>
-      <c r="S4">
-        <v>0.1180369118025626</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0.004594321142818709</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0.0312059318817504</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0.02086900131924758</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0.002044501798038871</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2583300996009282</v>
+      </c>
+      <c r="E5">
+        <v>0.009332969278207958</v>
+      </c>
+      <c r="F5">
+        <v>0.09274999371546158</v>
+      </c>
+      <c r="G5">
+        <v>0.05069592422213673</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0.01763414424469991</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.1553915903370249</v>
+      </c>
+      <c r="N5">
+        <v>0.009419804982185438</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.07883050322537609</v>
+      </c>
+      <c r="Q5">
+        <v>0.01264368341228511</v>
+      </c>
+      <c r="R5">
+        <v>0.168230744621879</v>
+      </c>
+      <c r="S5">
+        <v>0.05688814045567798</v>
+      </c>
+      <c r="T5">
+        <v>0.0006999775664941125</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0.0009511026885574473</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0.0008860309607725609</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.06788103794698204</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0.007431181195573542</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0.00879915947348687</v>
+      </c>
+      <c r="AF5">
+        <v>0.001697683902892145</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0.001506228169378649</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.1135939084770893</v>
-      </c>
-      <c r="F5">
-        <v>0.03799156432914786</v>
-      </c>
-      <c r="G5">
-        <v>0.2321456331076833</v>
-      </c>
-      <c r="H5">
-        <v>0.1507498863031252</v>
-      </c>
-      <c r="I5">
-        <v>0.01125732688188755</v>
-      </c>
-      <c r="J5">
-        <v>0.04587723851279347</v>
-      </c>
-      <c r="K5">
-        <v>0.05332320784153089</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0.02243360034225561</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0.0004771827899888273</v>
-      </c>
-      <c r="P5">
-        <v>0.1028473450473246</v>
-      </c>
-      <c r="Q5">
-        <v>0.05635548472940122</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0.07157356726276075</v>
-      </c>
-      <c r="T5">
-        <v>0.009750854928658364</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0.001898044066896292</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0.05628988292730669</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0.02663998569534371</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0.006795286756806496</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1132,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02907864705958124</v>
+        <v>0.2517886641541192</v>
       </c>
       <c r="E6">
-        <v>0.2592514713256358</v>
+        <v>0.01288086948245276</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1095623215395651</v>
       </c>
       <c r="G6">
-        <v>0.1616800671913459</v>
+        <v>0.06648009238741419</v>
       </c>
       <c r="H6">
-        <v>0.04974572538659951</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1153,34 +1135,34 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.04162897780336663</v>
+        <v>0.02295155768209277</v>
       </c>
       <c r="L6">
-        <v>0.02164350736664281</v>
+        <v>0.002787870730426003</v>
       </c>
       <c r="M6">
-        <v>0.07289734555966348</v>
+        <v>0.1537092998136863</v>
       </c>
       <c r="N6">
-        <v>0.03476709252170095</v>
+        <v>0.01561537698407867</v>
       </c>
       <c r="O6">
-        <v>0.01165902253182157</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.008944451578672482</v>
+        <v>0.07740346435857652</v>
       </c>
       <c r="Q6">
-        <v>0.1304176016924338</v>
+        <v>0.03315360601362522</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.1220126202525712</v>
       </c>
       <c r="S6">
-        <v>0.143425360499828</v>
+        <v>0.05438681582335467</v>
       </c>
       <c r="T6">
-        <v>0.008036127199859631</v>
+        <v>0.009173292823991793</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1195,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.00223209534457359</v>
+        <v>0.003494997957417885</v>
       </c>
       <c r="Z6">
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01316612998742762</v>
+        <v>0.06218898343725086</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.01099808812383458</v>
+        <v>0.001054971573175049</v>
       </c>
       <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0004282888270125547</v>
+        <v>0.001355194986201753</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1228,9 +1210,6 @@
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
         <v>0</v>
       </c>
     </row>
@@ -1241,15 +1220,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1356,466 +1335,451 @@
       <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37">
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.2111958382500011</v>
+      </c>
+      <c r="F2">
+        <v>0.2141598096423762</v>
+      </c>
+      <c r="G2">
+        <v>0.3221630626818004</v>
+      </c>
+      <c r="H2">
+        <v>0.3910539599648033</v>
+      </c>
+      <c r="I2">
+        <v>0.3910539599648033</v>
+      </c>
+      <c r="J2">
+        <v>0.3910539599648033</v>
+      </c>
+      <c r="K2">
+        <v>0.3910539599648033</v>
+      </c>
+      <c r="L2">
+        <v>0.3910539599648033</v>
+      </c>
+      <c r="M2">
+        <v>0.4534171007507211</v>
+      </c>
+      <c r="N2">
+        <v>0.5826727986511137</v>
+      </c>
+      <c r="O2">
+        <v>0.6432380972390285</v>
+      </c>
+      <c r="P2">
+        <v>0.6432380972390285</v>
+      </c>
+      <c r="Q2">
+        <v>0.6911049961157751</v>
+      </c>
+      <c r="R2">
+        <v>0.7713107185871939</v>
+      </c>
+      <c r="S2">
+        <v>0.8288558767756973</v>
+      </c>
+      <c r="T2">
+        <v>0.9154566732859569</v>
+      </c>
+      <c r="U2">
+        <v>0.9342408955622239</v>
+      </c>
+      <c r="V2">
+        <v>0.9342408955622239</v>
+      </c>
+      <c r="W2">
+        <v>0.9342408955622239</v>
+      </c>
+      <c r="X2">
+        <v>0.9342408955622239</v>
+      </c>
+      <c r="Y2">
+        <v>0.9342408955622239</v>
+      </c>
+      <c r="Z2">
+        <v>0.9342408955622239</v>
+      </c>
+      <c r="AA2">
+        <v>0.9342408955622239</v>
+      </c>
+      <c r="AB2">
+        <v>0.9895024869980171</v>
+      </c>
+      <c r="AC2">
+        <v>0.9959733166962483</v>
+      </c>
+      <c r="AD2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AG2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AI2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AJ2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.05227602163694004</v>
-      </c>
-      <c r="E2">
-        <v>0.1969731367167249</v>
-      </c>
-      <c r="F2">
-        <v>0.4129633574871333</v>
-      </c>
-      <c r="G2">
-        <v>0.6302548612520517</v>
-      </c>
-      <c r="H2">
-        <v>0.6315165680841209</v>
-      </c>
-      <c r="I2">
-        <v>0.6737723740467011</v>
-      </c>
-      <c r="J2">
-        <v>0.6937973832244767</v>
-      </c>
-      <c r="K2">
-        <v>0.6937973832244767</v>
-      </c>
-      <c r="L2">
-        <v>0.6937973832244767</v>
-      </c>
-      <c r="M2">
-        <v>0.6937973832244767</v>
-      </c>
-      <c r="N2">
-        <v>0.7176299835119724</v>
-      </c>
-      <c r="O2">
-        <v>0.7817147389153569</v>
-      </c>
-      <c r="P2">
-        <v>0.8072491810088468</v>
-      </c>
-      <c r="Q2">
-        <v>0.8072491810088468</v>
-      </c>
-      <c r="R2">
-        <v>0.8429779479871571</v>
-      </c>
-      <c r="S2">
-        <v>0.9152532003953405</v>
-      </c>
-      <c r="T2">
-        <v>0.9152532003953405</v>
-      </c>
-      <c r="U2">
-        <v>0.9152532003953405</v>
-      </c>
-      <c r="V2">
-        <v>0.9152532003953405</v>
-      </c>
-      <c r="W2">
-        <v>0.9152532003953405</v>
-      </c>
-      <c r="X2">
-        <v>0.9152532003953405</v>
-      </c>
-      <c r="Y2">
-        <v>0.9152532003953405</v>
-      </c>
-      <c r="Z2">
-        <v>0.9152532003953405</v>
-      </c>
-      <c r="AA2">
-        <v>0.9195916946350261</v>
-      </c>
-      <c r="AB2">
-        <v>0.9606345719780446</v>
-      </c>
-      <c r="AC2">
-        <v>0.9606345719780446</v>
-      </c>
-      <c r="AD2">
-        <v>0.9986878416261945</v>
-      </c>
-      <c r="AE2">
-        <v>0.9986878416261945</v>
-      </c>
-      <c r="AF2">
-        <v>0.9986878416261945</v>
-      </c>
-      <c r="AG2">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AH2">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AI2">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AJ2">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AK2">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:37">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.1701213255576947</v>
+      </c>
+      <c r="E3">
+        <v>0.2084574256223177</v>
+      </c>
+      <c r="F3">
+        <v>0.3005587685367229</v>
+      </c>
+      <c r="G3">
+        <v>0.3302724817820522</v>
+      </c>
+      <c r="H3">
+        <v>0.3302724817820522</v>
+      </c>
+      <c r="I3">
+        <v>0.3302724817820522</v>
+      </c>
+      <c r="J3">
+        <v>0.3302724817820522</v>
+      </c>
+      <c r="K3">
+        <v>0.3492612634593554</v>
+      </c>
+      <c r="L3">
+        <v>0.3492612634593554</v>
+      </c>
+      <c r="M3">
+        <v>0.5980190842998239</v>
+      </c>
+      <c r="N3">
+        <v>0.5987594042190075</v>
+      </c>
+      <c r="O3">
+        <v>0.5987594042190075</v>
+      </c>
+      <c r="P3">
+        <v>0.6907450241509289</v>
+      </c>
+      <c r="Q3">
+        <v>0.6907450241509289</v>
+      </c>
+      <c r="R3">
+        <v>0.8052114299237562</v>
+      </c>
+      <c r="S3">
+        <v>0.818957863258549</v>
+      </c>
+      <c r="T3">
+        <v>0.818957863258549</v>
+      </c>
+      <c r="U3">
+        <v>0.818957863258549</v>
+      </c>
+      <c r="V3">
+        <v>0.818957863258549</v>
+      </c>
+      <c r="W3">
+        <v>0.8401832465129646</v>
+      </c>
+      <c r="X3">
+        <v>0.8401832465129646</v>
+      </c>
+      <c r="Y3">
+        <v>0.8508025436725639</v>
+      </c>
+      <c r="Z3">
+        <v>0.8800557861641062</v>
+      </c>
+      <c r="AA3">
+        <v>0.9901425225122967</v>
+      </c>
+      <c r="AB3">
+        <v>0.9901425225122967</v>
+      </c>
+      <c r="AC3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AD3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AE3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AF3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AG3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AH3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AI3">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AJ3">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.2963964809008053</v>
-      </c>
-      <c r="G3">
-        <v>0.2993622144397089</v>
-      </c>
-      <c r="H3">
-        <v>0.5643644035494009</v>
-      </c>
-      <c r="I3">
-        <v>0.5740475408402381</v>
-      </c>
-      <c r="J3">
-        <v>0.620178282882655</v>
-      </c>
-      <c r="K3">
-        <v>0.620178282882655</v>
-      </c>
-      <c r="L3">
-        <v>0.6885409128566577</v>
-      </c>
-      <c r="M3">
-        <v>0.7151556571962822</v>
-      </c>
-      <c r="N3">
-        <v>0.7151556571962822</v>
-      </c>
-      <c r="O3">
-        <v>0.7151556571962822</v>
-      </c>
-      <c r="P3">
-        <v>0.7310651744847201</v>
-      </c>
-      <c r="Q3">
-        <v>0.8244844336096276</v>
-      </c>
-      <c r="R3">
-        <v>0.8244844336096276</v>
-      </c>
-      <c r="S3">
-        <v>0.8745802075952906</v>
-      </c>
-      <c r="T3">
-        <v>0.9117097464081362</v>
-      </c>
-      <c r="U3">
-        <v>0.9117097464081362</v>
-      </c>
-      <c r="V3">
-        <v>0.9117097464081362</v>
-      </c>
-      <c r="W3">
-        <v>0.9117097464081362</v>
-      </c>
-      <c r="X3">
-        <v>0.9117097464081362</v>
-      </c>
-      <c r="Y3">
-        <v>0.9117097464081362</v>
-      </c>
-      <c r="Z3">
-        <v>0.9117097464081362</v>
-      </c>
-      <c r="AA3">
-        <v>0.9117097464081362</v>
-      </c>
-      <c r="AB3">
-        <v>0.9117097464081362</v>
-      </c>
-      <c r="AC3">
-        <v>0.9454878023829545</v>
-      </c>
-      <c r="AD3">
-        <v>0.9476353269210829</v>
-      </c>
-      <c r="AE3">
-        <v>1</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>1</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.2071925908274842</v>
+      </c>
+      <c r="E4">
+        <v>0.2221376155017555</v>
+      </c>
+      <c r="F4">
+        <v>0.3292029538901989</v>
+      </c>
+      <c r="G4">
+        <v>0.3897961911429437</v>
+      </c>
+      <c r="H4">
+        <v>0.3897961911429437</v>
+      </c>
+      <c r="I4">
+        <v>0.3897961911429437</v>
+      </c>
+      <c r="J4">
+        <v>0.3897961911429437</v>
+      </c>
+      <c r="K4">
+        <v>0.3931107002446219</v>
+      </c>
+      <c r="L4">
+        <v>0.3931107002446219</v>
+      </c>
+      <c r="M4">
+        <v>0.6059226720969892</v>
+      </c>
+      <c r="N4">
+        <v>0.6458096940365256</v>
+      </c>
+      <c r="O4">
+        <v>0.6458096940365256</v>
+      </c>
+      <c r="P4">
+        <v>0.7234203748622993</v>
+      </c>
+      <c r="Q4">
+        <v>0.738200833369418</v>
+      </c>
+      <c r="R4">
+        <v>0.7745074350261217</v>
+      </c>
+      <c r="S4">
+        <v>0.8016123544150157</v>
+      </c>
+      <c r="T4">
+        <v>0.8016123544150157</v>
+      </c>
+      <c r="U4">
+        <v>0.8016123544150157</v>
+      </c>
+      <c r="V4">
+        <v>0.8016123544150157</v>
+      </c>
+      <c r="W4">
+        <v>0.8264989821225853</v>
+      </c>
+      <c r="X4">
+        <v>0.8264989821225853</v>
+      </c>
+      <c r="Y4">
+        <v>0.8486040203008001</v>
+      </c>
+      <c r="Z4">
+        <v>0.8618727680018508</v>
+      </c>
+      <c r="AA4">
+        <v>0.9824338243010975</v>
+      </c>
+      <c r="AB4">
+        <v>0.9824338243010975</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+      <c r="AJ4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0.2690853829751593</v>
-      </c>
-      <c r="F4">
-        <v>0.2690853829751593</v>
-      </c>
-      <c r="G4">
-        <v>0.4421450602797018</v>
-      </c>
-      <c r="H4">
-        <v>0.4762545583434617</v>
-      </c>
-      <c r="I4">
-        <v>0.4861191783067716</v>
-      </c>
-      <c r="J4">
-        <v>0.4861191783067716</v>
-      </c>
-      <c r="K4">
-        <v>0.5747840530482897</v>
-      </c>
-      <c r="L4">
-        <v>0.5747840530482897</v>
-      </c>
-      <c r="M4">
-        <v>0.7055045242959332</v>
-      </c>
-      <c r="N4">
-        <v>0.7055045242959332</v>
-      </c>
-      <c r="O4">
-        <v>0.7055045242959332</v>
-      </c>
-      <c r="P4">
-        <v>0.7416473293920801</v>
-      </c>
-      <c r="Q4">
-        <v>0.8201613266801981</v>
-      </c>
-      <c r="R4">
-        <v>0.8232493320555819</v>
-      </c>
-      <c r="S4">
-        <v>0.9412862438581445</v>
-      </c>
-      <c r="T4">
-        <v>0.9412862438581445</v>
-      </c>
-      <c r="U4">
-        <v>0.9412862438581445</v>
-      </c>
-      <c r="V4">
-        <v>0.9412862438581445</v>
-      </c>
-      <c r="W4">
-        <v>0.9412862438581445</v>
-      </c>
-      <c r="X4">
-        <v>0.9412862438581445</v>
-      </c>
-      <c r="Y4">
-        <v>0.9412862438581445</v>
-      </c>
-      <c r="Z4">
-        <v>0.9458805650009632</v>
-      </c>
-      <c r="AA4">
-        <v>0.9458805650009632</v>
-      </c>
-      <c r="AB4">
-        <v>0.9458805650009632</v>
-      </c>
-      <c r="AC4">
-        <v>0.9770864968827135</v>
-      </c>
-      <c r="AD4">
-        <v>0.9770864968827135</v>
-      </c>
-      <c r="AE4">
-        <v>0.9979554982019612</v>
-      </c>
-      <c r="AF4">
-        <v>0.9979554982019612</v>
-      </c>
-      <c r="AG4">
-        <v>0.9979554982019612</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
-      <c r="AK4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37">
-      <c r="A5" s="1" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.2583300996009282</v>
+      </c>
+      <c r="E5">
+        <v>0.2676630688791362</v>
+      </c>
+      <c r="F5">
+        <v>0.3604130625945977</v>
+      </c>
+      <c r="G5">
+        <v>0.4111089868167345</v>
+      </c>
+      <c r="H5">
+        <v>0.4111089868167345</v>
+      </c>
+      <c r="I5">
+        <v>0.4111089868167345</v>
+      </c>
+      <c r="J5">
+        <v>0.4111089868167345</v>
+      </c>
+      <c r="K5">
+        <v>0.4287431310614344</v>
+      </c>
+      <c r="L5">
+        <v>0.4287431310614344</v>
+      </c>
+      <c r="M5">
+        <v>0.5841347213984592</v>
+      </c>
+      <c r="N5">
+        <v>0.5935545263806447</v>
+      </c>
+      <c r="O5">
+        <v>0.5935545263806447</v>
+      </c>
+      <c r="P5">
+        <v>0.6723850296060208</v>
+      </c>
+      <c r="Q5">
+        <v>0.6850287130183058</v>
+      </c>
+      <c r="R5">
+        <v>0.8532594576401847</v>
+      </c>
+      <c r="S5">
+        <v>0.9101475980958628</v>
+      </c>
+      <c r="T5">
+        <v>0.9108475756623569</v>
+      </c>
+      <c r="U5">
+        <v>0.9108475756623569</v>
+      </c>
+      <c r="V5">
+        <v>0.9108475756623569</v>
+      </c>
+      <c r="W5">
+        <v>0.9117986783509143</v>
+      </c>
+      <c r="X5">
+        <v>0.9117986783509143</v>
+      </c>
+      <c r="Y5">
+        <v>0.9126847093116869</v>
+      </c>
+      <c r="Z5">
+        <v>0.9126847093116869</v>
+      </c>
+      <c r="AA5">
+        <v>0.980565747258669</v>
+      </c>
+      <c r="AB5">
+        <v>0.980565747258669</v>
+      </c>
+      <c r="AC5">
+        <v>0.9879969284542425</v>
+      </c>
+      <c r="AD5">
+        <v>0.9879969284542425</v>
+      </c>
+      <c r="AE5">
+        <v>0.9967960879277293</v>
+      </c>
+      <c r="AF5">
+        <v>0.9984937718306215</v>
+      </c>
+      <c r="AG5">
+        <v>0.9984937718306215</v>
+      </c>
+      <c r="AH5">
+        <v>0.9984937718306215</v>
+      </c>
+      <c r="AI5">
+        <v>1</v>
+      </c>
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0.1135939084770893</v>
-      </c>
-      <c r="F5">
-        <v>0.1515854728062371</v>
-      </c>
-      <c r="G5">
-        <v>0.3837311059139205</v>
-      </c>
-      <c r="H5">
-        <v>0.5344809922170457</v>
-      </c>
-      <c r="I5">
-        <v>0.5457383190989332</v>
-      </c>
-      <c r="J5">
-        <v>0.5916155576117267</v>
-      </c>
-      <c r="K5">
-        <v>0.6449387654532576</v>
-      </c>
-      <c r="L5">
-        <v>0.6449387654532576</v>
-      </c>
-      <c r="M5">
-        <v>0.6673723657955132</v>
-      </c>
-      <c r="N5">
-        <v>0.6673723657955132</v>
-      </c>
-      <c r="O5">
-        <v>0.6678495485855021</v>
-      </c>
-      <c r="P5">
-        <v>0.7706968936328267</v>
-      </c>
-      <c r="Q5">
-        <v>0.8270523783622279</v>
-      </c>
-      <c r="R5">
-        <v>0.8270523783622279</v>
-      </c>
-      <c r="S5">
-        <v>0.8986259456249887</v>
-      </c>
-      <c r="T5">
-        <v>0.908376800553647</v>
-      </c>
-      <c r="U5">
-        <v>0.908376800553647</v>
-      </c>
-      <c r="V5">
-        <v>0.908376800553647</v>
-      </c>
-      <c r="W5">
-        <v>0.908376800553647</v>
-      </c>
-      <c r="X5">
-        <v>0.908376800553647</v>
-      </c>
-      <c r="Y5">
-        <v>0.908376800553647</v>
-      </c>
-      <c r="Z5">
-        <v>0.9102748446205433</v>
-      </c>
-      <c r="AA5">
-        <v>0.9102748446205433</v>
-      </c>
-      <c r="AB5">
-        <v>0.9102748446205433</v>
-      </c>
-      <c r="AC5">
-        <v>0.9665647275478499</v>
-      </c>
-      <c r="AD5">
-        <v>0.9665647275478499</v>
-      </c>
-      <c r="AE5">
-        <v>0.9932047132431937</v>
-      </c>
-      <c r="AF5">
-        <v>0.9932047132431937</v>
-      </c>
-      <c r="AG5">
-        <v>0.9932047132431937</v>
-      </c>
-      <c r="AH5">
-        <v>0.9932047132431937</v>
-      </c>
-      <c r="AI5">
-        <v>0.9932047132431937</v>
-      </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
-      <c r="AK5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
@@ -1823,85 +1787,85 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02907864705958124</v>
+        <v>0.2517886641541192</v>
       </c>
       <c r="E6">
-        <v>0.288330118385217</v>
+        <v>0.2646695336365719</v>
       </c>
       <c r="F6">
-        <v>0.288330118385217</v>
+        <v>0.374231855176137</v>
       </c>
       <c r="G6">
-        <v>0.4500101855765629</v>
+        <v>0.4407119475635512</v>
       </c>
       <c r="H6">
-        <v>0.4997559109631624</v>
+        <v>0.4407119475635512</v>
       </c>
       <c r="I6">
-        <v>0.4997559109631624</v>
+        <v>0.4407119475635512</v>
       </c>
       <c r="J6">
-        <v>0.4997559109631624</v>
+        <v>0.4407119475635512</v>
       </c>
       <c r="K6">
-        <v>0.541384888766529</v>
+        <v>0.463663505245644</v>
       </c>
       <c r="L6">
-        <v>0.5630283961331718</v>
+        <v>0.46645137597607</v>
       </c>
       <c r="M6">
-        <v>0.6359257416928352</v>
+        <v>0.6201606757897563</v>
       </c>
       <c r="N6">
-        <v>0.6706928342145362</v>
+        <v>0.635776052773835</v>
       </c>
       <c r="O6">
-        <v>0.6823518567463578</v>
+        <v>0.635776052773835</v>
       </c>
       <c r="P6">
-        <v>0.6912963083250303</v>
+        <v>0.7131795171324115</v>
       </c>
       <c r="Q6">
-        <v>0.8217139100174641</v>
+        <v>0.7463331231460367</v>
       </c>
       <c r="R6">
-        <v>0.8217139100174641</v>
+        <v>0.8683457433986079</v>
       </c>
       <c r="S6">
-        <v>0.9651392705172921</v>
+        <v>0.9227325592219626</v>
       </c>
       <c r="T6">
-        <v>0.9731753977171517</v>
+        <v>0.9319058520459544</v>
       </c>
       <c r="U6">
-        <v>0.9731753977171517</v>
+        <v>0.9319058520459544</v>
       </c>
       <c r="V6">
-        <v>0.9731753977171517</v>
+        <v>0.9319058520459544</v>
       </c>
       <c r="W6">
-        <v>0.9731753977171517</v>
+        <v>0.9319058520459544</v>
       </c>
       <c r="X6">
-        <v>0.9731753977171517</v>
+        <v>0.9319058520459544</v>
       </c>
       <c r="Y6">
-        <v>0.9754074930617253</v>
+        <v>0.9354008500033724</v>
       </c>
       <c r="Z6">
-        <v>0.9754074930617253</v>
+        <v>0.9354008500033724</v>
       </c>
       <c r="AA6">
-        <v>0.9885736230491529</v>
+        <v>0.9975898334406232</v>
       </c>
       <c r="AB6">
-        <v>0.9885736230491529</v>
+        <v>0.9975898334406232</v>
       </c>
       <c r="AC6">
-        <v>0.9995717111729875</v>
+        <v>0.9986448050137983</v>
       </c>
       <c r="AD6">
-        <v>0.9995717111729875</v>
+        <v>0.9986448050137983</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -1919,9 +1883,6 @@
         <v>1</v>
       </c>
       <c r="AJ6">
-        <v>1</v>
-      </c>
-      <c r="AK6">
         <v>1</v>
       </c>
     </row>
@@ -1940,66 +1901,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6302548612520517</v>
+        <v>0.5826727986511137</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -2008,39 +1969,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5643644035494009</v>
+        <v>0.5980190842998239</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -2049,39 +2010,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5747840530482897</v>
+        <v>0.6059226720969892</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -2090,39 +2051,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5344809922170457</v>
+        <v>0.5841347213984592</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -2131,39 +2092,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.541384888766529</v>
+        <v>0.6201606757897563</v>
       </c>
       <c r="G6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -2172,16 +2133,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2199,66 +2160,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7176299835119724</v>
+        <v>0.7713107185871939</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -2267,39 +2228,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7151556571962822</v>
+        <v>0.8052114299237562</v>
       </c>
       <c r="G3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -2308,39 +2269,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7055045242959332</v>
+        <v>0.7234203748622993</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -2349,39 +2310,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7706968936328267</v>
+        <v>0.8532594576401847</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -2390,36 +2351,36 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8217139100174641</v>
+        <v>0.7131795171324115</v>
       </c>
       <c r="G6">
         <v>14</v>
@@ -2431,16 +2392,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2458,66 +2419,66 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8072491810088468</v>
+        <v>0.8288558767756973</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>28</v>
@@ -2526,39 +2487,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0.8052114299237562</v>
+      </c>
+      <c r="G3">
         <v>16</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0.8244844336096276</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -2567,39 +2528,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8201613266801981</v>
+        <v>0.8016123544150157</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -2608,39 +2569,39 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.8532594576401847</v>
+      </c>
+      <c r="G5">
         <v>16</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.8270523783622279</v>
-      </c>
-      <c r="G5">
-        <v>14</v>
       </c>
       <c r="H5">
         <v>28</v>
@@ -2649,39 +2610,39 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.8683457433986079</v>
+      </c>
+      <c r="G6">
         <v>16</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.8217139100174641</v>
-      </c>
-      <c r="G6">
-        <v>14</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -2690,16 +2651,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2717,63 +2678,63 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9152532003953405</v>
+        <v>0.9154566732859569</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -2785,39 +2746,39 @@
         <v>900</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>56</v>
-      </c>
-      <c r="M2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9117097464081362</v>
+        <v>0.9901425225122967</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>28</v>
@@ -2826,39 +2787,39 @@
         <v>900</v>
       </c>
       <c r="J3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9412862438581445</v>
+        <v>0.9824338243010975</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>28</v>
@@ -2867,36 +2828,36 @@
         <v>900</v>
       </c>
       <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>54</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>55</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.908376800553647</v>
+        <v>0.9101475980958628</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2908,27 +2869,27 @@
         <v>900</v>
       </c>
       <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>55</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>56</v>
-      </c>
-      <c r="M5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>18</v>
@@ -2937,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9651392705172921</v>
+        <v>0.9227325592219626</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6">
         <v>28</v>
@@ -2949,16 +2910,16 @@
         <v>900</v>
       </c>
       <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>56</v>
-      </c>
-      <c r="M6" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
